--- a/Timesheets/dokumenty/[Stefanik, Andrzej].xlsx
+++ b/Timesheets/dokumenty/[Stefanik, Andrzej].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="17640" windowHeight="6750"/>
+    <workbookView xWindow="4680" yWindow="0" windowWidth="17640" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
   <si>
     <t>Załącznik nr 2</t>
   </si>
@@ -99,28 +99,67 @@
     <t>Ekspert Nadzoru Robót Spawalniczych</t>
   </si>
   <si>
-    <t>Udzia? w Naradzie Koordynacyjnej w Bonikowie z udzia?em Zamawiaj?cego, WNI i WRB._x000D_; Przegl?d dokumentacji jako?ciowej WRB z dnia 27.01.2017, m.in. PZJ i instrukcja za?. 5.13 do PZJ - zg?oszenie uwag.</t>
-  </si>
-  <si>
-    <t>Weryfikacja zapisów w PKiB i wzorach protoko?ów oraz przekazanie uwag do WRB. _x000D_; Zapoznanie si? z uwagami WNI zg?oszonymi w nocie NN-0051 (do PZJ) i w nocie NW-0016 (do PKiB).</t>
-  </si>
-  <si>
-    <t>Spotkanie ze spawalnikiem OT INDUSTRIES/KVV w celu wyja?nienia uwag z not NN-0030 oraz NN-0031 i uzgodnienia tre?ci korekty zapisów we wskazanych opracowaniach WRB.    Zapoznanie inspektora UDT z wymaganiami projektu dotycz?cymi ?uków gi?tych na zimno, dla wskazania dokumentów odniesienia podczas kwalifikowania technologii gi?cia ?uków.</t>
-  </si>
-  <si>
-    <t>Przegl?d instrukcji technologicznych WRB przes?anych w dniu 3 lutego. _x000D_; Sporz?dzenie uwag do instrukcji 5.4.10 (roz?adunku i rozwózki rur) dla wydania noty przez WNI._x000D_; Obliczanie ilo?ci spoin liniowych i monta?owych na poszczególnych odcinkach gazoci?gu pomi?dzy obiektami.</t>
-  </si>
-  <si>
-    <t>Zapoznanie z tre?ci? Kart Zmian do Projektu Wykonawczego G429 ? Rewizja 2. _x000D_; Dalszy ci?g przegl?du instrukcji technologicznych WRB przes?anych w dniu 3 lutego ? wnoszenie uwag do IT 5.4.29 (uk?adka).</t>
-  </si>
-  <si>
-    <t>Narada Koordynacyjna w biurze w Bonikowie z udzia?em WRB i Zamawiaj?cego ? notatka.  _x000D_; Przegl?d dokumentów WPQR kwalifikuj?cych technologie spawania (27 sztuk) wydanych przez UDT dla Wykonawcy OT INDUSTRIES/KVV.</t>
-  </si>
-  <si>
-    <t>Analiza schematu organizacyjnego budowy przekazanego przez WRB ? zg?oszenie uwag (e-mail)._x000D_; Przegl?d protoko?ów wydanych przez laboratorium firmy OT INDUSTRIES/KVV z bada? na egzaminacyjnych z??czach spawanych z procedur kwalifikowania technologii spawania.</t>
-  </si>
-  <si>
-    <t>Spotkanie z WRB w celu omówienia zakresu sporz?dzenia schematu organizacyjnego budowy. _x000D_; Przegl?d i analiza zestawu dokumentacji jako?ciowej WRB z dnia 08.02.2017. Wydanie opinii do PKiB, PZJ, schematu organizacyjnego i za??czników do PZJ (e-mail).</t>
+    <t>Bonikowo. _x000D_; Sprawdzenie poprawności zestawu dokumentów przekazanych przez WRB z instrukcjami technologicznymi spawania WPS, oraz przegląd dokumentacji potrzebnej do rozpoczęcia prac spawalniczych.</t>
+  </si>
+  <si>
+    <t>Bonikowo</t>
+  </si>
+  <si>
+    <t>Bonikowo._x000D_; Przegląd 39 sztuk protokołów według wzoru 10-8 z PKiB na dopuszczenie do prac produkcyjnych dla 25 spawaczy, wraz z protokołami badań i świadectwami –  wydanie opinii pozytywnej. _x000D_; Sprawdzenie uprawnień firmy END CORR i personelu w zakresie uprawnień do wykonywania przyłączy ochrony katodowej na gazociągu –  wydanie opinii pozytywnej._x000D_; Uzgadnianie z firmą NDTEST sprawy korekt w dokumentacji firmy do wykonywania badań NDT.</t>
+  </si>
+  <si>
+    <t>Bonikowo._x000D_; Sporządzenie dla Zamawiającego (jako wkładu WNI do raportu tygodniowego Zamawiającego) informacji o zaawansowaniu WRB w zakresie prac przygotowawczych do spawania._x000D_; Opracowanie dla WNI informacji nt. zapisów wymagających uzupełnienia i zmian w Planie Nadzoru WNI i  w PZJ WRB.  _x000D_; Uzgadnianie ze spawalnikiem firmy RAFAKO dokumentów i procedury postepowania dla kwalifikowania technologii spawania stali gatunku Q.</t>
+  </si>
+  <si>
+    <t>Bonikowo. _x000D_; Przegląd dokumentów przekazanych przez WRB dotyczących WPG Krobia – Projekt Organizacji Robót, schematy.  _x000D_; Przegląd „Rejestru zmian” opracowanych przez WRB do wniosku o zatwierdzenie laboratorium NDTEST jako podwykonawcy badań nieniszczących.</t>
+  </si>
+  <si>
+    <t>Bonikowo._x000D_; Przegląd i ocena dokumentacji firmy NDTEST na zatwierdzenie laboratorium do badań nieniszczących._x000D_; Przedstawienie dla Zamawiającego propozycji dotyczącej proponowanego przez WNI zakresu badań niszczących złączy produkcyjnych.</t>
+  </si>
+  <si>
+    <t>Bonikowo. _x000D_; Narada Koordynacyjna – notatka._x000D_; Odpowiedź na pismo WRB nr PPI/175/127/2017/05/E dotyczące egzaminu na dopuszczenie spawaczy, planowanego do odbycia w Siofok w 20 tygodniu br._x000D_; Spotkanie z Zamawiającym i WRB (w tym firma KVV) nt. harmonogramu prac do rozpoczęcia robót spawalniczych w terminie do 30 maja br. – notatka z załącznikami.</t>
+  </si>
+  <si>
+    <t>Bonikowo._x000D_; Odpowiedź na pismo WRB nr PPI/175/129/2017/05/E w sprawie propozycji WRB do zakresu badań niszczących na produkcyjnych złączach spawanych._x000D_; Przegląd i ocena dokumentów firmy RAFAKO do wniosku o zatwierdzenie podwykonawcy prac na obiektach technologicznych. _x000D_; Odpowiedź na pismo WRB nr PPI/175/136/2017/05/E w sprawie propozycji WRB dopuszczenia świadectwa odbioru typu 3.2 dla drutu Bohler NiMo1-IG. _x000D_; Sporządzenie dla Zamawiającego (jako wkładu WNI do raportu tygodniowego Zamawiającego) informacji o zaawansowaniu WRB w zakresie prac przygotowawczych do spawania.</t>
+  </si>
+  <si>
+    <t>Bonikowo. _x000D_; Podpisywanie protokołów dopuszczenia spawaczy według wzoru nr 10-8 do PKiB.  _x000D_; Przegląd i ocena wniosku o zatwierdzenie materiału - elektrody Bohler FOX BVD 100 ø4 mm – wydanie opinii pozytywnej. _x000D_; Przegląd harmonogramu z dnia 09.05.2017 w zakresie prac spawalniczych liniowych, montażowych i na obiektach technologicznych.</t>
+  </si>
+  <si>
+    <t>Bonikowo._x000D_; Uzgadnianie z WRB i Zamawiającym dokumentów i procedury przystąpienia podwykonawcy RAFAKO-PBG do kwalifikowania technologii spawania stali gatunku Q oraz egzaminów na dopuszczenie spawaczy do prac produkcyjnych. _x000D_; Omówienie ze spawalnikiem firmy KVV programu działań wymaganych do wykonania przed przystąpieniem do spawania liniowego, według zapisów w załączniku nr 4 do notatki z Narady Koordynacyjnej w dniu 10.05.2017r.</t>
+  </si>
+  <si>
+    <t>Bonikowo._x000D_; Przegląd dokumentacji z procedur egzaminacyjnych spawaczy i podpisywanie protokołów 10-8 na dopuszczenia do spawania produkcyjnego – przedstawienie opinii do Noty Pozytywnej. _x000D_; Opiniowanie wniosku o zatwierdzenie materiału spawalniczego drut Bohler NiMo1-IG – przedstawienie opinii do Noty Pozytywnej.  _x000D_; Sporządzenie wykazu spawaczy z podaniem zakresu uprawnień i numerów protokołów 10-8.</t>
+  </si>
+  <si>
+    <t>Bonikowo._x000D_; Narada Koordynacyjna z udziałem Zamawiającego i WRB – notatka z narady._x000D_; Opracowanie propozycji treści pisma dotyczącego zakresu badań niszczących dla produkcyjnych złączy spawanych._x000D_; Podpisywanie dwóch kompletów protokołów dopuszczenia spawaczy według wzoru nr 10-8 do PKiB.</t>
+  </si>
+  <si>
+    <t>Bonikowo. _x000D_; Sprawdzenie na zgodność treści poprawionych instrukcji technologicznych do badań nieniszczących (VT, MT, PT, RT, UT, UTA) z zapisami w protokołach z Rad Technicznych w GAZ-SYSTEM S.A. _x000D_; Sporządzenie dla Zamawiającego (jako wkładu WNI do raportu tygodniowego Zamawiającego) informacji o zaawansowaniu WRB w zakresie prac przygotowawczych do spawania gazociągu.   _x000D_; Opracowanie propozycji wzoru protokołu „Raport z inspekcji spawalniczej” jako załącznika do „Planu Nadzoru.</t>
+  </si>
+  <si>
+    <t>Bonikowo._x000D_; Zapoznanie z aktualizacją dokumentacji jakościowej WRB z dnia 19.05.2017, tj. rewizja 1 dla PKiB oraz PZJ wraz z protokołami i załącznikami. _x000D_; Przegląd protokołów z badań nieniszczących (VT i RT) wydanych przez laboratorium DE-TECH dla łuków giętych na zimno. _x000D_; Przegląd dokumentów (instrukcje, certyfikaty, atesty materiałowe) załączonych do zgłoszenia egzaminu spawaczy firmy RAFAKO w dniu 23.05.2017r.   _x000D_; Sprawdzenie zgodności dostaw materiałów spawalniczych (cztery rodzaje spoiw) z zapisami w dokumentach dostawy i protokołu nr 6-5 z PKiB.</t>
+  </si>
+  <si>
+    <t>Wysogotowo / Bonikowo._x000D_; Nadzór nad egzaminem spawaczy firmy PBG/RAFAKO na kwalifikowanie technologii spawania połączeń mieszanych ze stali gatunku L485M i L485Q, dla procedury wydania przez UDT dokumentu WPQR. _x000D_; Przegląd dokumentów firmy DE-TECH załączonych do wniosku na dopuszczenie usługodawcy w zakresie badań niszczących produkcyjnych złączy spawanych na odcinku liniowym gazociągu.</t>
+  </si>
+  <si>
+    <t>Bonikowo._x000D_; Zapoznanie ze wstępną wersją opracowania firmy NDTEST pt. „Plan badań NDT dla części liniowej” nr 5.2.11. _x000D_; Rada Budowy – notatka z narady._x000D_; Przegląd dokumentów w zakresie spawalniczego sprzętu produkcyjnego WRB-KVV wskazanego przez wykonawcę prac dla spełnienia wymagań związanych z dopuszczeniem firmy do wykonywania prac spawalniczych według wymagań protokołów nr 10-0 i 10-0.1 z PKiB.</t>
+  </si>
+  <si>
+    <t>Bonikowo / pas montażowy na 72 km_x000D_; Przegląd dokumentów w zakresie personelu firmy KVV wskazanego przez wykonawcę prac dla spełnienia wymagań związanych z dopuszczeniem firmy do wykonywania prac spawalniczych według wymagań protokołów nr 10-0 i 10-0.1 z PKiB – dotyczy kadry nadzoru i personelu wykonawczego w zakresie uprawnień zawodowych i kwalifikacji oraz dokumentacji bhp._x000D_; Sporządzenie dla Zamawiającego (jako wkładu WNI do raportu tygodniowego Zamawiającego) informacji o zaawansowaniu WRB w zakresie prac przygotowawczych do spawania gazociągu.   _x000D_; Przegląd sprzętu spawalniczego dla czołówki spawania liniowego na zgodność z dokumentami przedstawionymi przez WRB/KVV – inspekcja na terenie budowy, oraz omówienie brakujących elementów ze spawalnikami PORR, KVV i GAZ-SYSTEM.</t>
+  </si>
+  <si>
+    <t>Bonikowo._x000D_; Przegląd protokołów na dopuszczenie do prac produkcyjnych spawaczy według wzoru 10-8 z PKiB, wraz z protokołami badań i świadectwami z egzaminów –  wydanie opinii do Noty Pozytywnej. Podpisywanie trzech kompletów protokołów nr 10-8 z PKiB. _x000D_; Zapoznanie się z poprawioną wersją opracowania firmy NDTEST pt. „Plan badań NDT dla części liniowej” nr 5.2.11._x000D_; Sporządzenie uzupełnionego wykazu spawaczy.</t>
+  </si>
+  <si>
+    <t>Bonikowo._x000D_; Odbiór dostawy gazu Corgon 18 – podpisanie protokołu odbioru według wzoru 6-5 z PKiB._x000D_; Przegląd aktualizacji opracowań WRB i wydanie opinii akceptującej do Not Pozytywnych dla Planu Spawania rew.1 nr 5.4.11 i Instrukcji Technologicznej montażu i spawania rew.1 nr 5.4.12. Parafowanie dokumentów.</t>
+  </si>
+  <si>
+    <t>Bonikowo / pas montażowy na 72 km_x000D_; Przegląd i ocena dokumentów załączonych do protokołu 10-0 na dopuszczenie do wykonywania prac spawalniczych przez WRB (Konsorcjant KVV) – podpisanie protokołu dopuszczającego. _x000D_; Rozpoczęcie prac spawalniczych na odcinku liniowym od 71,6 km – nadzór WNI._x000D_; Podpisanie protokołów kwalifikowania gięcia łuków na zimno nr: 2/7-1 i 6/7-1 dla grubości ścianki rury 22,2 mm.</t>
+  </si>
+  <si>
+    <t>Bonikowo / pas montażowy na 72 km._x000D_; Narada Koordynacyjna – notatka._x000D_; Kontrola wykonywania prac montażowo-spawalniczych na budowie.</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1322,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="str">
         <f xml:space="preserve"> "Wykaz Czynności nr PS/WC/" &amp; TEXT(C9, "00") &amp; "/" &amp;G9</f>
-        <v>Wykaz Czynności nr PS/WC/02/2017</v>
+        <v>Wykaz Czynności nr PS/WC/05/2017</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -1357,7 +1396,7 @@
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" s="41"/>
       <c r="E9" s="42"/>
@@ -1389,12 +1428,12 @@
       </c>
       <c r="G10" s="44"/>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="45">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B11" s="16">
-        <v>42765</v>
+        <v>42856</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>14</v>
@@ -1404,43 +1443,45 @@
       <c r="F11" s="48"/>
       <c r="G11" s="49"/>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="46"/>
       <c r="B12" s="16">
         <f t="shared" ref="B12:B24" si="0">B11+1</f>
-        <v>42766</v>
+        <v>42857</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="48"/>
+      <c r="D12" s="17">
+        <v>1</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>26</v>
+      </c>
       <c r="G12" s="49"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="46"/>
       <c r="B13" s="16">
         <f t="shared" si="0"/>
-        <v>42767</v>
+        <v>42858</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="17">
-        <v>1</v>
-      </c>
+      <c r="D13" s="17"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="48" t="s">
-        <v>26</v>
-      </c>
+      <c r="F13" s="48"/>
       <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="46"/>
       <c r="B14" s="16">
         <f t="shared" si="0"/>
-        <v>42768</v>
+        <v>42859</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>17</v>
@@ -1448,9 +1489,11 @@
       <c r="D14" s="17">
         <v>1</v>
       </c>
-      <c r="E14" s="18"/>
+      <c r="E14" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="F14" s="48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G14" s="49"/>
     </row>
@@ -1458,7 +1501,7 @@
       <c r="A15" s="46"/>
       <c r="B15" s="16">
         <f t="shared" si="0"/>
-        <v>42769</v>
+        <v>42860</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>18</v>
@@ -1466,9 +1509,11 @@
       <c r="D15" s="17">
         <v>1</v>
       </c>
-      <c r="E15" s="18"/>
+      <c r="E15" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="F15" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G15" s="49"/>
     </row>
@@ -1476,7 +1521,7 @@
       <c r="A16" s="46"/>
       <c r="B16" s="19">
         <f t="shared" si="0"/>
-        <v>42770</v>
+        <v>42861</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>19</v>
@@ -1490,7 +1535,7 @@
       <c r="A17" s="47"/>
       <c r="B17" s="19">
         <f t="shared" si="0"/>
-        <v>42771</v>
+        <v>42862</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>20</v>
@@ -1502,11 +1547,11 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="45">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B18" s="16">
         <f t="shared" si="0"/>
-        <v>42772</v>
+        <v>42863</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>14</v>
@@ -1514,9 +1559,11 @@
       <c r="D18" s="17">
         <v>1</v>
       </c>
-      <c r="E18" s="18"/>
+      <c r="E18" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="F18" s="48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" s="49"/>
     </row>
@@ -1524,7 +1571,7 @@
       <c r="A19" s="46"/>
       <c r="B19" s="16">
         <f t="shared" si="0"/>
-        <v>42773</v>
+        <v>42864</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>15</v>
@@ -1532,9 +1579,11 @@
       <c r="D19" s="17">
         <v>1</v>
       </c>
-      <c r="E19" s="18"/>
+      <c r="E19" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="F19" s="48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G19" s="49"/>
     </row>
@@ -1542,7 +1591,7 @@
       <c r="A20" s="46"/>
       <c r="B20" s="16">
         <f t="shared" si="0"/>
-        <v>42774</v>
+        <v>42865</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>16</v>
@@ -1550,9 +1599,11 @@
       <c r="D20" s="17">
         <v>1</v>
       </c>
-      <c r="E20" s="18"/>
+      <c r="E20" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="F20" s="48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20" s="49"/>
     </row>
@@ -1560,7 +1611,7 @@
       <c r="A21" s="46"/>
       <c r="B21" s="16">
         <f t="shared" si="0"/>
-        <v>42775</v>
+        <v>42866</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>17</v>
@@ -1568,9 +1619,11 @@
       <c r="D21" s="17">
         <v>1</v>
       </c>
-      <c r="E21" s="18"/>
+      <c r="E21" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="F21" s="48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G21" s="49"/>
     </row>
@@ -1578,7 +1631,7 @@
       <c r="A22" s="46"/>
       <c r="B22" s="16">
         <f t="shared" si="0"/>
-        <v>42776</v>
+        <v>42867</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>18</v>
@@ -1586,9 +1639,11 @@
       <c r="D22" s="17">
         <v>1</v>
       </c>
-      <c r="E22" s="18"/>
+      <c r="E22" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="F22" s="48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G22" s="49"/>
     </row>
@@ -1596,7 +1651,7 @@
       <c r="A23" s="46"/>
       <c r="B23" s="19">
         <f t="shared" si="0"/>
-        <v>42777</v>
+        <v>42868</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>19</v>
@@ -1610,7 +1665,7 @@
       <c r="A24" s="47"/>
       <c r="B24" s="19">
         <f t="shared" si="0"/>
-        <v>42778</v>
+        <v>42869</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>20</v>
@@ -1622,67 +1677,91 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="45">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B25" s="16">
         <f>B24+1</f>
-        <v>42779</v>
+        <v>42870</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="48"/>
+      <c r="D25" s="17">
+        <v>1</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>35</v>
+      </c>
       <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
       <c r="B26" s="16">
         <f t="shared" ref="B26:B45" si="1">B25+1</f>
-        <v>42780</v>
+        <v>42871</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="48"/>
+      <c r="D26" s="17">
+        <v>1</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="48" t="s">
+        <v>36</v>
+      </c>
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="46"/>
       <c r="B27" s="16">
         <f t="shared" si="1"/>
-        <v>42781</v>
+        <v>42872</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="48"/>
+      <c r="D27" s="17">
+        <v>1</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>37</v>
+      </c>
       <c r="G27" s="49"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="46"/>
       <c r="B28" s="16">
         <f t="shared" si="1"/>
-        <v>42782</v>
+        <v>42873</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="48"/>
+      <c r="D28" s="17">
+        <v>1</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="48" t="s">
+        <v>38</v>
+      </c>
       <c r="G28" s="49"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="46"/>
       <c r="B29" s="16">
         <f t="shared" si="1"/>
-        <v>42783</v>
+        <v>42874</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>18</v>
@@ -1696,7 +1775,7 @@
       <c r="A30" s="46"/>
       <c r="B30" s="19">
         <f t="shared" si="1"/>
-        <v>42784</v>
+        <v>42875</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>19</v>
@@ -1710,7 +1789,7 @@
       <c r="A31" s="47"/>
       <c r="B31" s="19">
         <f t="shared" si="1"/>
-        <v>42785</v>
+        <v>42876</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>20</v>
@@ -1722,81 +1801,111 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="45">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B32" s="16">
         <f t="shared" si="1"/>
-        <v>42786</v>
+        <v>42877</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="48"/>
+      <c r="D32" s="17">
+        <v>1</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="48" t="s">
+        <v>39</v>
+      </c>
       <c r="G32" s="49"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="46"/>
       <c r="B33" s="16">
         <f t="shared" si="1"/>
-        <v>42787</v>
+        <v>42878</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="48"/>
+      <c r="D33" s="17">
+        <v>1</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="48" t="s">
+        <v>40</v>
+      </c>
       <c r="G33" s="49"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="46"/>
       <c r="B34" s="16">
         <f t="shared" si="1"/>
-        <v>42788</v>
+        <v>42879</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="48"/>
+      <c r="D34" s="17">
+        <v>1</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="48" t="s">
+        <v>41</v>
+      </c>
       <c r="G34" s="49"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="46"/>
       <c r="B35" s="16">
         <f t="shared" si="1"/>
-        <v>42789</v>
+        <v>42880</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="48"/>
+      <c r="D35" s="17">
+        <v>1</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="48" t="s">
+        <v>42</v>
+      </c>
       <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="46"/>
       <c r="B36" s="16">
         <f t="shared" si="1"/>
-        <v>42790</v>
+        <v>42881</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="48"/>
+      <c r="D36" s="17">
+        <v>1</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="48" t="s">
+        <v>43</v>
+      </c>
       <c r="G36" s="49"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="46"/>
       <c r="B37" s="19">
         <f t="shared" si="1"/>
-        <v>42791</v>
+        <v>42882</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>19</v>
@@ -1810,7 +1919,7 @@
       <c r="A38" s="47"/>
       <c r="B38" s="19">
         <f t="shared" si="1"/>
-        <v>42792</v>
+        <v>42883</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>20</v>
@@ -1822,53 +1931,71 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="45">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B39" s="16">
         <f t="shared" si="1"/>
-        <v>42793</v>
+        <v>42884</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="48"/>
+      <c r="D39" s="17">
+        <v>1</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="48" t="s">
+        <v>44</v>
+      </c>
       <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="46"/>
       <c r="B40" s="16">
         <f t="shared" si="1"/>
-        <v>42794</v>
+        <v>42885</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="48"/>
+      <c r="D40" s="17">
+        <v>1</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="48" t="s">
+        <v>45</v>
+      </c>
       <c r="G40" s="49"/>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="46"/>
       <c r="B41" s="16">
         <f t="shared" si="1"/>
-        <v>42795</v>
+        <v>42886</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="48"/>
+      <c r="D41" s="17">
+        <v>1</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="48" t="s">
+        <v>46</v>
+      </c>
       <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="46"/>
       <c r="B42" s="16">
         <f t="shared" si="1"/>
-        <v>42796</v>
+        <v>42887</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>17</v>
@@ -1882,7 +2009,7 @@
       <c r="A43" s="46"/>
       <c r="B43" s="16">
         <f t="shared" si="1"/>
-        <v>42797</v>
+        <v>42888</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>18</v>
@@ -1896,7 +2023,7 @@
       <c r="A44" s="46"/>
       <c r="B44" s="19">
         <f t="shared" si="1"/>
-        <v>42798</v>
+        <v>42889</v>
       </c>
       <c r="C44" s="19" t="s">
         <v>19</v>
@@ -1910,7 +2037,7 @@
       <c r="A45" s="47"/>
       <c r="B45" s="19">
         <f t="shared" si="1"/>
-        <v>42799</v>
+        <v>42890</v>
       </c>
       <c r="C45" s="19" t="s">
         <v>20</v>
@@ -1926,7 +2053,7 @@
         <v>21</v>
       </c>
       <c r="C46" s="25">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D46" s="26"/>
       <c r="E46" s="26"/>
